--- a/relevant/base_data.xlsx
+++ b/relevant/base_data.xlsx
@@ -515,6 +515,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="17.13"/>
     <col customWidth="1" min="3" max="3" width="16.88"/>
   </cols>
   <sheetData>
